--- a/Projects/Federal Reserve Data/['CA', 'FFR', 'CA Lag', 'FFR Lag']['LF', 'CA', 'LF Lag', 'CA Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx.xlsx
+++ b/Projects/Federal Reserve Data/['CA', 'FFR', 'CA Lag', 'FFR Lag']['LF', 'CA', 'LF Lag', 'CA Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>C/A</t>
   </si>
@@ -43,7 +43,13 @@
     <t>1.796**</t>
   </si>
   <si>
-    <t>-0.018</t>
+    <t>-0.031***</t>
+  </si>
+  <si>
+    <t>0.378***</t>
+  </si>
+  <si>
+    <t>0.086</t>
   </si>
 </sst>
 </file>
@@ -422,6 +428,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -430,6 +439,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -439,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +462,7 @@
         <v>0.74</v>
       </c>
       <c r="C5">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
